--- a/data/vorarlberg/compare_data.xlsx
+++ b/data/vorarlberg/compare_data.xlsx
@@ -5,10 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="current_data" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="scenario_data" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="social-distancing" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="home-office" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="60">
   <si>
     <t xml:space="preserve">current_situation</t>
   </si>
@@ -149,15 +152,67 @@
   </si>
   <si>
     <t xml:space="preserve">test_yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_0.8_0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_0.8_0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_0.2_0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_0.6_0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_0.2_0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_0.6_0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ho_0.8_0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ho_0.8_0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ho_0.8_0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ho_0.2_0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ho_0.4_0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ho_0.6_0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ho_0.2_0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ho_0.4_0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ho_0.6_0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Differenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="0%"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -182,7 +237,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +248,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDE59"/>
+        <bgColor rgb="FFD4EA6B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4EA6B"/>
+        <bgColor rgb="FFFFDE59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -230,7 +303,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,6 +320,38 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -256,6 +361,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFD4EA6B"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFDE59"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -266,11 +431,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.02"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.52"/>
@@ -1362,4 +1527,2940 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ36"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="9.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="9" style="1" width="10.69"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <v>58312</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>121089</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>47723</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>93577</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>61479</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>118788</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="4" t="n">
+        <v>71426</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>98512</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <v>128002</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>56766</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <v>70765</v>
+      </c>
+      <c r="N2" s="6" t="n">
+        <v>106069</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>69877</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>95391</v>
+      </c>
+      <c r="Q2" s="6" t="n">
+        <v>125044</v>
+      </c>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>58216</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>120951</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>47672</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>93428</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>61359</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>118608</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>71163</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>98296</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>127717</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>56708</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>70634</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>105830</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>69650</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>95032</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>124856</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>483228</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>483228</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>483228</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>483228</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>483228</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>483228</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>483228</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>483228</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>483228</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>483228</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>483228</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>483228</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>483228</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>483228</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>483228</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>34637</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>70386</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>28129</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>55709</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>36687</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>70514</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="4" t="n">
+        <v>42891</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>59044</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>76181</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>33799</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>42388</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>62948</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>41701</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>57110</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>72804</v>
+      </c>
+      <c r="AME5" s="0"/>
+      <c r="AMF5" s="0"/>
+      <c r="AMG5" s="0"/>
+      <c r="AMH5" s="0"/>
+      <c r="AMI5" s="0"/>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>57669</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>119813</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>47316</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>92484</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>60768</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>117435</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>69989</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>97098</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>126230</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>56148</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>69823</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>104493</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>68675</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>93585</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>123567</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>38674</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>81096</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>31668</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>62452</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>40860</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>79197</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>47234</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>65905</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>85281</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>37634</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>46884</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>70534</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>46245</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>63280</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>83506</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2488</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>5395</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1945</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>4113</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>2632</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>5341</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>3187</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>4510</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>5914</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>2537</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>3294</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>4897</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>3167</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>4436</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>5860</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1331</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>924</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>1268</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>1143</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>1463</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>1231</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>1121</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="n">
+        <v>325</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>783</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>249</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>535</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>324</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>760</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="4" t="n">
+        <v>504</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>678</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>891</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>380</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>504</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>742</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>488</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>670</v>
+      </c>
+      <c r="Q10" s="6" t="n">
+        <v>888</v>
+      </c>
+      <c r="AME10" s="0"/>
+      <c r="AMF10" s="0"/>
+      <c r="AMG10" s="0"/>
+      <c r="AMH10" s="0"/>
+      <c r="AMI10" s="0"/>
+      <c r="AMJ10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>143171</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>212212</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>121042</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>205030</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>149716</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>212596</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>95404</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>146728</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>193113</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>80832</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>115713</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>184108</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>155871</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>199954</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>211873</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AME12" s="0"/>
+      <c r="AMF12" s="0"/>
+      <c r="AMG12" s="0"/>
+      <c r="AMH12" s="0"/>
+      <c r="AMI12" s="0"/>
+      <c r="AMJ12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>330399</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>267622</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>340988</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>295134</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>327232</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>269923</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>317285</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>290199</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>260709</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>331945</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>317946</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>282642</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>318834</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>293320</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>263667</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AME24" s="0"/>
+      <c r="AMF24" s="0"/>
+      <c r="AMG24" s="0"/>
+      <c r="AMH24" s="0"/>
+      <c r="AMI24" s="0"/>
+      <c r="AMJ24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>34577</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>70296</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>28109</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>55620</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>36626</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>70365</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>42753</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>58937</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>76022</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>33769</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>42316</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>62836</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <v>41597</v>
+      </c>
+      <c r="P28" s="1" t="n">
+        <v>56936</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>72720</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="P29" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>388386</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>387928</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>388462</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>388176</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>388387</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>387951</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>388207</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>388033</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>387820</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>388331</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>388207</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>387969</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <v>388223</v>
+      </c>
+      <c r="P30" s="1" t="n">
+        <v>388041</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>387823</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="9.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>47723</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>58312</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>61479</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">C2-B2</f>
+        <v>10589</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <f aca="false">E2/C2</f>
+        <v>0.181592125120044</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">D2-C2</f>
+        <v>3167</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <f aca="false">G2/D2</f>
+        <v>0.0515135249434766</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>28129</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>34637</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>36687</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">C3-B3</f>
+        <v>6508</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <f aca="false">E3/C3</f>
+        <v>0.187891561047435</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">D3-C3</f>
+        <v>2050</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <f aca="false">G3/D3</f>
+        <v>0.055878103960531</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">C4-B4</f>
+        <v>76</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <f aca="false">E4/C4</f>
+        <v>0.233846153846154</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">D4-C4</f>
+        <v>-1</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <f aca="false">G4/D4</f>
+        <v>-0.00308641975308642</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">C5-B5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">D5-C5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">C6-B6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">D6-C6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>93577</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>121089</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>118788</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">C9-B9</f>
+        <v>27512</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <f aca="false">E9/C9</f>
+        <v>0.227204783258595</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">D9-C9</f>
+        <v>-2301</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <f aca="false">G9/D9</f>
+        <v>-0.0193706434993434</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>55709</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>70386</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>70514</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">C10-B10</f>
+        <v>14677</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <f aca="false">E10/C10</f>
+        <v>0.208521580996221</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">D10-C10</f>
+        <v>128</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <f aca="false">G10/D10</f>
+        <v>0.00181524236321865</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">C11-B11</f>
+        <v>248</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <f aca="false">E11/C11</f>
+        <v>0.316730523627075</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">D11-C11</f>
+        <v>-23</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <f aca="false">G11/D11</f>
+        <v>-0.0302631578947368</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">C12-B12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">D12-C12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">C13-B13</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">D13-C13</f>
+        <v>2</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <f aca="false">G13/D13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="9" width="10.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10" t="n">
+        <v>56766</v>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>71426</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <v>69877</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">C2-B2</f>
+        <v>14660</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <f aca="false">E2/C2</f>
+        <v>0.205247388906001</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">D2-C2</f>
+        <v>-1549</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <f aca="false">G2/D2</f>
+        <v>-0.022167522933154</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>33799</v>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>42891</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>41701</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">C3-B3</f>
+        <v>9092</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <f aca="false">E3/C3</f>
+        <v>0.211979203096221</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">D3-C3</f>
+        <v>-1190</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <f aca="false">G3/D3</f>
+        <v>-0.0285364859355891</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>380</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>504</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>488</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">C4-B4</f>
+        <v>124</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <f aca="false">E4/C4</f>
+        <v>0.246031746031746</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">D4-C4</f>
+        <v>-16</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <f aca="false">G4/D4</f>
+        <v>-0.0327868852459016</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">C5-B5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">D5-C5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">C6-B6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">D6-C6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">C7-B7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">D7-C7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">C8-B8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">D8-C8</f>
+        <v>4</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <f aca="false">G8/D8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>70765</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>98512</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <v>95391</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">C11-B11</f>
+        <v>27747</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <f aca="false">E11/C11</f>
+        <v>0.281661117427318</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">D11-C11</f>
+        <v>-3121</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <f aca="false">G11/D11</f>
+        <v>-0.0327179712970825</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>42388</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>59044</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>57110</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">C12-B12</f>
+        <v>16656</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <f aca="false">E12/C12</f>
+        <v>0.282094709030553</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">D12-C12</f>
+        <v>-1934</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <f aca="false">G12/D12</f>
+        <v>-0.0338644720714411</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>504</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <v>678</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>670</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">C13-B13</f>
+        <v>174</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <f aca="false">E13/C13</f>
+        <v>0.256637168141593</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">D13-C13</f>
+        <v>-8</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <f aca="false">G13/D13</f>
+        <v>-0.0119402985074627</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">C14-B14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">D14-C14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">C15-B15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">D15-C15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">C16-B16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">D16-C16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">C17-B17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">D17-C17</f>
+        <v>3</v>
+      </c>
+      <c r="H17" s="8" t="n">
+        <f aca="false">G17/D17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>106069</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>128002</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>125044</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">C20-B20</f>
+        <v>21933</v>
+      </c>
+      <c r="F20" s="8" t="n">
+        <f aca="false">E20/C20</f>
+        <v>0.171348885173669</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">D20-C20</f>
+        <v>-2958</v>
+      </c>
+      <c r="H20" s="8" t="n">
+        <f aca="false">G20/D20</f>
+        <v>-0.0236556732030325</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>62948</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>76181</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>72804</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">C21-B21</f>
+        <v>13233</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <f aca="false">E21/C21</f>
+        <v>0.173704729525735</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">D21-C21</f>
+        <v>-3377</v>
+      </c>
+      <c r="H21" s="8" t="n">
+        <f aca="false">G21/D21</f>
+        <v>-0.0463848140212076</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>742</v>
+      </c>
+      <c r="C22" s="10" t="n">
+        <v>891</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <v>888</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">C22-B22</f>
+        <v>149</v>
+      </c>
+      <c r="F22" s="8" t="n">
+        <f aca="false">E22/C22</f>
+        <v>0.167227833894501</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">D22-C22</f>
+        <v>-3</v>
+      </c>
+      <c r="H22" s="8" t="n">
+        <f aca="false">G22/D22</f>
+        <v>-0.00337837837837838</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">C23-B23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">D23-C23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">C24-B24</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">D24-C24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">C25-B25</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="8" t="n">
+        <f aca="false">E25/C25</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">D25-C25</f>
+        <v>-1</v>
+      </c>
+      <c r="H25" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">C26-B26</f>
+        <v>5</v>
+      </c>
+      <c r="F26" s="8" t="n">
+        <f aca="false">E26/C26</f>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">D26-C26</f>
+        <v>-6</v>
+      </c>
+      <c r="H26" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>